--- a/medicine/Enfance/Le_Retour_de_l'aube/Le_Retour_de_l'aube.xlsx
+++ b/medicine/Enfance/Le_Retour_de_l'aube/Le_Retour_de_l'aube.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Retour_de_l%27aube</t>
+          <t>Le_Retour_de_l'aube</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Retour de l'aube (titre original : Double Cross) est un roman pour la jeunesse de Malorie Blackman, publié en 2005 en Angleterre et en 2009 en France[1]. il s'agit du quatrième tome de la série constituée d'Entre chiens et loups, La Couleur de la haine, Le Choix d'aimer, Le Retour de l'aube, Entre les lignes et La dernière chance.
+Le Retour de l'aube (titre original : Double Cross) est un roman pour la jeunesse de Malorie Blackman, publié en 2005 en Angleterre et en 2009 en France. il s'agit du quatrième tome de la série constituée d'Entre chiens et loups, La Couleur de la haine, Le Choix d'aimer, Le Retour de l'aube, Entre les lignes et La dernière chance.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Retour_de_l%27aube</t>
+          <t>Le_Retour_de_l'aube</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Callie Rose est en couple avec Tobey, mais leur quartier est séparé entre deux clans : les Dowd et les McAuley. Tobey, en voulant gagner un peu d'argent, travaille une fois pour McAuley, mais il devient mal perçu par lui en refusant de retravailler pour lui. McAuley essaye de le tuer. Cependant, lors d'une fusillade, il ne tue pas Tobey et entraîne Callie dans le coma. C'est alors que Tobey voudra venger Callie en complotant avec la famille Dowd....
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Retour_de_l%27aube</t>
+          <t>Le_Retour_de_l'aube</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Callie Rose Hadley : petite amie de Tobey
 Tobey Durbridge : petit ami de Callie
